--- a/Components/SMT Components.xlsx
+++ b/Components/SMT Components.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonb1\Documents\GitHub\TackleSensorPCB\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2C6DD16-6153-4AFB-BED8-5261CF77EFAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF57B56E-C813-4993-B011-71B6FF540934}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6233CBF6-EEF9-4800-8865-9D1764EA5B40}"/>
+    <workbookView xWindow="5760" yWindow="3288" windowWidth="17280" windowHeight="8964" xr2:uid="{6233CBF6-EEF9-4800-8865-9D1764EA5B40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="pcbway" sheetId="2" r:id="rId2"/>
+    <sheet name="jlc pcb" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>Part</t>
   </si>
@@ -121,13 +123,61 @@
   </si>
   <si>
     <t>Extened Part on JLC PCB</t>
+  </si>
+  <si>
+    <t>nSMD020</t>
+  </si>
+  <si>
+    <t>similar digikey</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Board</t>
+  </si>
+  <si>
+    <t>Assembly</t>
+  </si>
+  <si>
+    <t>Shiping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Components </t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>KT-0603R</t>
+  </si>
+  <si>
+    <t>LED_0603</t>
+  </si>
+  <si>
+    <t>SOD-123FL</t>
+  </si>
+  <si>
+    <t>SOT-23-3</t>
+  </si>
+  <si>
+    <t>2.2uF</t>
+  </si>
+  <si>
+    <t>CMI201209U2R2KT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +197,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF069AFF"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF525252"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,11 +231,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,19 +552,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BDDB03-38A0-4477-A203-480AE27E9FC3}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -519,8 +584,14 @@
       <c r="F1" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -538,8 +609,9 @@
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -551,14 +623,15 @@
         <v>1.1681999999999999</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E14" si="0">D3*C3</f>
+        <f t="shared" ref="E3:E16" si="0">D3*C3</f>
         <v>1.1681999999999999</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -576,8 +649,9 @@
       <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -595,8 +669,11 @@
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -614,8 +691,11 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -633,8 +713,11 @@
         <v>1.9E-3</v>
       </c>
       <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="2">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -652,8 +735,11 @@
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="2">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -671,8 +757,11 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -692,25 +781,33 @@
       <c r="F10" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>4.8800000000000003E-2</v>
+      </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.8800000000000003E-2</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="2">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -728,8 +825,11 @@
         <v>8.8999999999999999E-3</v>
       </c>
       <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -747,8 +847,11 @@
         <v>4.8800000000000003E-2</v>
       </c>
       <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -766,18 +869,171 @@
         <v>4.1799999999999997E-2</v>
       </c>
       <c r="F14" s="2"/>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D18" t="s">
+      <c r="G14" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="G16">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19">
+        <f>SUM(C2:C16)</f>
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="E18">
-        <f>SUM(E2:E14)</f>
-        <v>2.8401999999999998</v>
+      <c r="E19">
+        <f>SUM(E2:E16)</f>
+        <v>2.9057999999999997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D2DDAB-7569-40C8-A826-0AE019E1C45A}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C1">
+        <v>20</v>
+      </c>
+      <c r="D1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <f>45/25</f>
+        <v>1.8</v>
+      </c>
+      <c r="D2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>6.4</v>
+      </c>
+      <c r="D3">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <f>Sheet1!E19</f>
+        <v>2.9057999999999997</v>
+      </c>
+      <c r="D5">
+        <f>Sheet1!E19</f>
+        <v>2.9057999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <f>SUM(C2:C5)</f>
+        <v>12.1058</v>
+      </c>
+      <c r="D6">
+        <f>SUM(D2:D5)</f>
+        <v>8.1257999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A886F2D-6810-404F-8191-2BC011D792E8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Components/SMT Components.xlsx
+++ b/Components/SMT Components.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonb1\Documents\GitHub\TackleSensorPCB\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF57B56E-C813-4993-B011-71B6FF540934}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF65633-DD34-4F64-B864-EC0D9A3FE1C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3288" windowWidth="17280" windowHeight="8964" xr2:uid="{6233CBF6-EEF9-4800-8865-9D1764EA5B40}"/>
   </bookViews>
@@ -56,21 +56,9 @@
     <t>TPS62172DSGR</t>
   </si>
   <si>
-    <t>4.7K</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
-    <t>.1uF</t>
-  </si>
-  <si>
-    <t>330ohms</t>
-  </si>
-  <si>
-    <t>100ohms</t>
-  </si>
-  <si>
     <t>switch</t>
   </si>
   <si>
@@ -83,9 +71,6 @@
     <t>10uF</t>
   </si>
   <si>
-    <t>100kohms</t>
-  </si>
-  <si>
     <t>2N7002</t>
   </si>
   <si>
@@ -171,6 +156,21 @@
   </si>
   <si>
     <t>CMI201209U2R2KT</t>
+  </si>
+  <si>
+    <t>100NF 16V 0402</t>
+  </si>
+  <si>
+    <t>330ohms 603 1%</t>
+  </si>
+  <si>
+    <t>100ohms 1206 5%</t>
+  </si>
+  <si>
+    <t>4.7K 0402 5%</t>
+  </si>
+  <si>
+    <t>100kohms 402 1%</t>
   </si>
 </sst>
 </file>
@@ -555,12 +555,13 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.88671875" customWidth="1"/>
   </cols>
@@ -573,22 +574,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -607,7 +608,7 @@
         <v>0.95660000000000001</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -627,7 +628,7 @@
         <v>1.1681999999999999</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2"/>
     </row>
@@ -647,16 +648,16 @@
         <v>0.57350000000000001</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="C5" s="3">
         <v>4</v>
@@ -675,10 +676,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -697,10 +698,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -719,10 +720,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -741,10 +742,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -763,10 +764,10 @@
     </row>
     <row r="10" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -779,16 +780,16 @@
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -801,7 +802,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G11" s="2">
         <v>1206</v>
@@ -809,10 +810,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -826,15 +827,15 @@
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2">
         <v>4</v>
@@ -853,10 +854,10 @@
     </row>
     <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2">
         <v>2</v>
@@ -870,15 +871,15 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -891,15 +892,15 @@
         <v>7.9000000000000008E-3</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -920,14 +921,14 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C19">
         <f>SUM(C2:C16)</f>
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <f>SUM(E2:E16)</f>
@@ -963,7 +964,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <f>45/25</f>
@@ -975,7 +976,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>6.4</v>
@@ -986,7 +987,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -997,7 +998,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <f>Sheet1!E19</f>
@@ -1010,7 +1011,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <f>SUM(C2:C5)</f>

--- a/Components/SMT Components.xlsx
+++ b/Components/SMT Components.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonb1\Documents\GitHub\TackleSensorPCB\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF65633-DD34-4F64-B864-EC0D9A3FE1C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D054FE-7EDA-4689-8F5E-FBC8F41D2A3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3288" windowWidth="17280" windowHeight="8964" xr2:uid="{6233CBF6-EEF9-4800-8865-9D1764EA5B40}"/>
+    <workbookView xWindow="-5352" yWindow="5388" windowWidth="17280" windowHeight="8964" xr2:uid="{6233CBF6-EEF9-4800-8865-9D1764EA5B40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>Part</t>
   </si>
@@ -68,18 +68,12 @@
     <t>diode</t>
   </si>
   <si>
-    <t>10uF</t>
-  </si>
-  <si>
     <t>2N7002</t>
   </si>
   <si>
     <t>mosfet</t>
   </si>
   <si>
-    <t>CL05A106MQ5NUNC</t>
-  </si>
-  <si>
     <t>SM4007PL</t>
   </si>
   <si>
@@ -152,9 +146,6 @@
     <t>SOT-23-3</t>
   </si>
   <si>
-    <t>2.2uF</t>
-  </si>
-  <si>
     <t>CMI201209U2R2KT</t>
   </si>
   <si>
@@ -171,6 +162,18 @@
   </si>
   <si>
     <t>100kohms 402 1%</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>2.2uH</t>
+  </si>
+  <si>
+    <t>10uF 20V 0402</t>
+  </si>
+  <si>
+    <t>CL21A106KAYNNNE</t>
   </si>
 </sst>
 </file>
@@ -552,386 +555,404 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BDDB03-38A0-4477-A203-480AE27E9FC3}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.95660000000000001</v>
+      </c>
+      <c r="F2" s="2">
+        <f>E2*D2</f>
+        <v>0.95660000000000001</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.1681999999999999</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F16" si="0">E3*D3</f>
+        <v>1.1681999999999999</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.57350000000000001</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.57350000000000001</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.9E-3</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9E-3</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4.8800000000000003E-2</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>4.8800000000000003E-2</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>4.8800000000000003E-2</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>4.1799999999999997E-2</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="B15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.95660000000000001</v>
-      </c>
-      <c r="E2" s="2">
-        <f>D2*C2</f>
-        <v>0.95660000000000001</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.1681999999999999</v>
-      </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3:E16" si="0">D3*C3</f>
-        <v>1.1681999999999999</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.57350000000000001</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" si="0"/>
-        <v>0.57350000000000001</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="B16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="3">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="0"/>
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="0"/>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.9E-3</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>1.9E-3</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="H16">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19">
+        <f>SUM(D2:D16)</f>
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="0"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>4.8800000000000003E-2</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>4.8800000000000003E-2</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>8.8999999999999999E-3</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>8.8999999999999999E-3</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2">
-        <v>4</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1.2200000000000001E-2</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>4.8800000000000003E-2</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2.0899999999999998E-2</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="0"/>
-        <v>4.1799999999999997E-2</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>7.9000000000000008E-3</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="0"/>
-        <v>7.9000000000000008E-3</v>
-      </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2">
-        <v>8.8999999999999999E-3</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="0"/>
-        <v>8.8999999999999999E-3</v>
-      </c>
-      <c r="G16">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19">
-        <f>SUM(C2:C16)</f>
-        <v>22</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <f>SUM(E2:E16)</f>
+      <c r="F19">
+        <f>SUM(F2:F16)</f>
         <v>2.9057999999999997</v>
       </c>
     </row>
@@ -964,7 +985,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <f>45/25</f>
@@ -976,7 +997,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>6.4</v>
@@ -987,7 +1008,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -998,20 +1019,20 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5">
-        <f>Sheet1!E19</f>
+        <f>Sheet1!F19</f>
         <v>2.9057999999999997</v>
       </c>
       <c r="D5">
-        <f>Sheet1!E19</f>
+        <f>Sheet1!F19</f>
         <v>2.9057999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <f>SUM(C2:C5)</f>

--- a/Components/SMT Components.xlsx
+++ b/Components/SMT Components.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonb1\Documents\GitHub\TackleSensorPCB\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D054FE-7EDA-4689-8F5E-FBC8F41D2A3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9776B26-3984-4AA7-B7FC-E03DC45F29D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5352" yWindow="5388" windowWidth="17280" windowHeight="8964" xr2:uid="{6233CBF6-EEF9-4800-8865-9D1764EA5B40}"/>
+    <workbookView xWindow="15672" yWindow="6012" windowWidth="11364" windowHeight="10728" xr2:uid="{6233CBF6-EEF9-4800-8865-9D1764EA5B40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Part</t>
   </si>
@@ -50,9 +50,6 @@
     <t>MSP430FR2433</t>
   </si>
   <si>
-    <t>MMA8452QR1</t>
-  </si>
-  <si>
     <t>TPS62172DSGR</t>
   </si>
   <si>
@@ -174,13 +171,16 @@
   </si>
   <si>
     <t>CL21A106KAYNNNE</t>
+  </si>
+  <si>
+    <t>LIS3DH </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +213,12 @@
       <name val="Microsoft YaHei"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -234,13 +240,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,7 +565,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,22 +584,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -611,33 +618,26 @@
         <v>0.95660000000000001</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>4</v>
+      <c r="B3" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="2">
-        <v>1.1681999999999999</v>
-      </c>
-      <c r="F3" s="2">
-        <f t="shared" ref="F3:F16" si="0">E3*D3</f>
-        <v>1.1681999999999999</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2">
@@ -647,23 +647,23 @@
         <v>0.57350000000000001</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F3:F16" si="0">E4*D4</f>
         <v>0.57350000000000001</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="3">
         <v>4</v>
@@ -682,13 +682,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -707,13 +707,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -732,13 +732,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -757,13 +757,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="10" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -798,16 +798,16 @@
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -820,7 +820,7 @@
         <v>4.8800000000000003E-2</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" s="2">
         <v>1206</v>
@@ -828,10 +828,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -845,18 +845,18 @@
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="2">
         <v>4</v>
@@ -875,10 +875,10 @@
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D14" s="2">
         <v>2</v>
@@ -892,15 +892,15 @@
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -913,15 +913,15 @@
         <v>7.9000000000000008E-3</v>
       </c>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -942,18 +942,18 @@
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19">
         <f>SUM(D2:D16)</f>
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F19">
         <f>SUM(F2:F16)</f>
-        <v>2.9057999999999997</v>
+        <v>1.7375999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +985,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <f>45/25</f>
@@ -997,7 +997,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>6.4</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1019,28 +1019,28 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <f>Sheet1!F19</f>
-        <v>2.9057999999999997</v>
+        <v>1.7375999999999998</v>
       </c>
       <c r="D5">
         <f>Sheet1!F19</f>
-        <v>2.9057999999999997</v>
+        <v>1.7375999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <f>SUM(C2:C5)</f>
-        <v>12.1058</v>
+        <v>10.937600000000002</v>
       </c>
       <c r="D6">
         <f>SUM(D2:D5)</f>
-        <v>8.1257999999999999</v>
+        <v>6.9575999999999993</v>
       </c>
     </row>
   </sheetData>
